--- a/result/NCDC_weather_data/stations_imputed/45044099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/45044099999.xlsx
@@ -567,7 +567,9 @@
       <c r="M2" t="n">
         <v>4.475627999999999</v>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>15.26957349579832</v>
+      </c>
       <c r="O2" t="n">
         <v>148.28</v>
       </c>
@@ -621,7 +623,9 @@
       <c r="M3" t="n">
         <v>5.092956</v>
       </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>15.26957349579832</v>
+      </c>
       <c r="O3" t="n">
         <v>158.36</v>
       </c>
@@ -675,7 +679,9 @@
       <c r="M4" t="n">
         <v>7.407936</v>
       </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>15.26957349579832</v>
+      </c>
       <c r="O4" t="n">
         <v>156.02</v>
       </c>
@@ -729,7 +735,9 @@
       <c r="M5" t="n">
         <v>7.510824</v>
       </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="N5" t="n">
+        <v>15.26957349579832</v>
+      </c>
       <c r="O5" t="n">
         <v>162.5</v>
       </c>
@@ -783,7 +791,9 @@
       <c r="M6" t="n">
         <v>4.218407999999999</v>
       </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="n">
+        <v>15.26957349579832</v>
+      </c>
       <c r="O6" t="n">
         <v>167.36</v>
       </c>
@@ -837,7 +847,9 @@
       <c r="M7" t="n">
         <v>9.002700000000001</v>
       </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="n">
+        <v>15.26957349579832</v>
+      </c>
       <c r="O7" t="n">
         <v>163.22</v>
       </c>
@@ -891,7 +903,9 @@
       <c r="M8" t="n">
         <v>6.379056</v>
       </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="n">
+        <v>15.26957349579832</v>
+      </c>
       <c r="O8" t="n">
         <v>158</v>
       </c>
@@ -945,7 +959,9 @@
       <c r="M9" t="n">
         <v>8.076708</v>
       </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="n">
+        <v>15.26957349579832</v>
+      </c>
       <c r="O9" t="n">
         <v>157.64</v>
       </c>
@@ -999,7 +1015,9 @@
       <c r="M10" t="n">
         <v>5.813172000000001</v>
       </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="N10" t="n">
+        <v>15.26957349579832</v>
+      </c>
       <c r="O10" t="n">
         <v>153.5</v>
       </c>
@@ -1053,7 +1071,9 @@
       <c r="M11" t="n">
         <v>11.5749</v>
       </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="N11" t="n">
+        <v>15.26957349579832</v>
+      </c>
       <c r="O11" t="n">
         <v>156.74</v>
       </c>
